--- a/biology/Médecine/Centre_hospitalier_Bretagne_Atlantique/Centre_hospitalier_Bretagne_Atlantique.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Bretagne_Atlantique/Centre_hospitalier_Bretagne_Atlantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier Bretagne Atlantique (CHBA) est un centre hospitalier du Morbihan, regroupant depuis 2000 deux hôpitaux, distants de 25 kilomètres : l'hôpital Prosper-Chubert à Vannes et l'hôpital Le Pratel à Auray.
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHBA est l'établissement hospitalier de référence pour le territoire de santé no 4 de la région Bretagne, lequel compte plus de 364 500 habitants (soit 11,7 % de la population bretonne), population en très forte augmentation à la faveur de la saison estivale. Disposant de 1 429 lits et places, il emploie plus de 3 000 agents, médicaux, soignants, administratifs, logistiques et techniques. Il est situé sur deux sites géographiques : le site Chubert à Vannes et le site Le pratel à Auray, distant de 25 km[1].
-Quelques chiffres clés (données 2011)
-Le CHBA dispose de 1 429 lits et places utilisés (dont 92 places d'hôpital de jour)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHBA est l'établissement hospitalier de référence pour le territoire de santé no 4 de la région Bretagne, lequel compte plus de 364 500 habitants (soit 11,7 % de la population bretonne), population en très forte augmentation à la faveur de la saison estivale. Disposant de 1 429 lits et places, il emploie plus de 3 000 agents, médicaux, soignants, administratifs, logistiques et techniques. Il est situé sur deux sites géographiques : le site Chubert à Vannes et le site Le pratel à Auray, distant de 25 km.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Bretagne_Atlantique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Bretagne_Atlantique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quelques chiffres clés (données 2011)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHBA dispose de 1 429 lits et places utilisés (dont 92 places d'hôpital de jour)
 44 232 patients hospitalisés à temps complet
 33 700 séances d'hospitalisation à temps partiel réalisées
 432 110 journées d'hospitalisation à temps complet
@@ -536,40 +585,77 @@
 Soins de suite et réadaptation (SSR) dont un service de MPR : 231
 Unités de soins de longue durée (USLD): 90
 Établissements d'hébergement pour personnes âgées dépendantes (EHPAD) : 367
-[2].
+.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Centre_hospitalier_Bretagne_Atlantique</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Bretagne_Atlantique</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHBA propose une large gamme de spécialités médicales et chirurgicales : cardiologie, pneumologie, rhumatologie, gastro-entérologie, neurologie, hématologie, oncologie, maladies infectieuses, obstétrique, etc[2]. 
-Équipements
-Il dispose de plusieurs équipements d'imagerie de pointe : scanners, IRM, mammographes, etc[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHBA propose une large gamme de spécialités médicales et chirurgicales : cardiologie, pneumologie, rhumatologie, gastro-entérologie, neurologie, hématologie, oncologie, maladies infectieuses, obstétrique, etc. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Bretagne_Atlantique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Bretagne_Atlantique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Équipements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il dispose de plusieurs équipements d'imagerie de pointe : scanners, IRM, mammographes, etc.
 </t>
         </is>
       </c>
